--- a/biology/Botanique/Molène_à_feuilles_sinuées/Molène_à_feuilles_sinuées.xlsx
+++ b/biology/Botanique/Molène_à_feuilles_sinuées/Molène_à_feuilles_sinuées.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mol%C3%A8ne_%C3%A0_feuilles_sinu%C3%A9es</t>
+          <t>Molène_à_feuilles_sinuées</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Verbascum sinuatum
 La Molène à feuilles sinuées (Verbascum sinuatum) est une plante herbacée de la famille des Scrofulariacées qui pousse en milieu méditerranéen.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mol%C3%A8ne_%C3%A0_feuilles_sinu%C3%A9es</t>
+          <t>Molène_à_feuilles_sinuées</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,11 +524,48 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Parmi les molènes, elle se caractérise par des feuilles basales sinuées, c’est-à-dire aux bords ondulés. Les fleurs sont jaune soufre avec des étamines violettes.
-Caractéristiques
-Organes reproducteurs
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Molène_à_feuilles_sinuées</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mol%C3%A8ne_%C3%A0_feuilles_sinu%C3%A9es</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Organes reproducteurs
 Couleur dominante des fleurs : jaune
 Période de floraison : juillet-octobre
 Inflorescence : épi simple
@@ -534,40 +583,112 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Mol%C3%A8ne_%C3%A0_feuilles_sinu%C3%A9es</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Molène_à_feuilles_sinuées</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Mol%C3%A8ne_%C3%A0_feuilles_sinu%C3%A9es</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Interactions écologiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Fleur
 			Fleurs et boutons.
 La Molène à feuilles sinueuses est parasitée par de nombreux charançons.
-Parasites
-L'espèce qui se rencontre au début de la floraison est Gymnetron tetrum. Ces coléoptères charançons pondent dans les fleurs, les œufs évoluent en larves lesquelles s'alimentent du pollen et des graines en formation dans les capsules[1]. Le cycle dure trois semaines. En septembre, les derniers contingents s'abritent et ne sortiront plus qu'au printemps suivant.
-Parasitoïdes
-Des insectes parasitoïdes hyménoptères sont attirés par les capsules parasitées. Ce sont :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Molène_à_feuilles_sinuées</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mol%C3%A8ne_%C3%A0_feuilles_sinu%C3%A9es</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Interactions écologiques</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Parasites</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce qui se rencontre au début de la floraison est Gymnetron tetrum. Ces coléoptères charançons pondent dans les fleurs, les œufs évoluent en larves lesquelles s'alimentent du pollen et des graines en formation dans les capsules. Le cycle dure trois semaines. En septembre, les derniers contingents s'abritent et ne sortiront plus qu'au printemps suivant.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Molène_à_feuilles_sinuées</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mol%C3%A8ne_%C3%A0_feuilles_sinu%C3%A9es</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Interactions écologiques</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Parasitoïdes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Des insectes parasitoïdes hyménoptères sont attirés par les capsules parasitées. Ce sont :
 un Eupelmidae : Eupelmus confusus,
 des Eurytomidae : Eurytoma sp. et E. spp.,
 un Pteromalidae : Pteromalus albipennis,
@@ -577,33 +698,35 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Mol%C3%A8ne_%C3%A0_feuilles_sinu%C3%A9es</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Molène_à_feuilles_sinuées</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Mol%C3%A8ne_%C3%A0_feuilles_sinu%C3%A9es</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Statuts de protection, menaces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce n'est pas encore évaluée à l'échelle mondiale et européenne par l'UICN. En France elle est classée comme non préoccupante [2].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce n'est pas encore évaluée à l'échelle mondiale et européenne par l'UICN. En France elle est classée comme non préoccupante .
 </t>
         </is>
       </c>
